--- a/PaJose.xlsx
+++ b/PaJose.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>los morenitos del congo</t>
+  </si>
+  <si>
+    <t>version 1.0</t>
   </si>
 </sst>
 </file>
@@ -339,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,6 +355,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PaJose.xlsx
+++ b/PaJose.xlsx
@@ -31,8 +31,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,7 +343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -342,25 +351,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>